--- a/proftest.xlsx
+++ b/proftest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="220">
   <si>
     <t xml:space="preserve">qid</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">business</t>
   </si>
   <si>
-    <t xml:space="preserve">Что ж, начнём. Тебе нравится заниматься финансовыми операциями больше, чем творчеством?</t>
+    <t xml:space="preserve">Тебе нравится заниматься финансовыми операциями больше, чем творчеством?</t>
   </si>
   <si>
     <t xml:space="preserve">да!</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">https://cdn.fishki.net/upload/post/201410/22/1318746/how_to_use_the_gym_25.gif</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sun9-18.userapi.com/c627222/v627222437/121d2/6Z6cNCWtPbo.jpg</t>
+    <t xml:space="preserve">https://cdn.lifehacker.ru/wp-content/uploads/2018/07/ezgif.com-resize_1531945755.gif</t>
   </si>
   <si>
     <t xml:space="preserve">Увидев тонущего человека, ты бросишься его спасать?</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">https://art.pixilart.com/5f35b2c7e85fc7f.gif</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.imgur.com/zabyPE5h.jpg</t>
+    <t xml:space="preserve">https://media.tenor.com/54mjjpuowCgAAAAC/ninjala-jane.gif</t>
   </si>
   <si>
     <t xml:space="preserve">Мне нравится рассматривать чертежи и схемы приборов</t>
@@ -590,9 +590,6 @@
     <t xml:space="preserve">https://thumbs.gfycat.com/LoathsomeUnderstatedDwarfrabbit-size_restricted.gif</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://thumbs.gfycat.com/ImmediateEssentialAxolotl-size_restricted.gif</t>
-  </si>
-  <si>
     <t xml:space="preserve">На мой взгляд, таблицы и графики – очень удобный и информативный способ представления информации </t>
   </si>
   <si>
@@ -608,10 +605,10 @@
     <t xml:space="preserve">ладно, у меня тоже иногда бывают к ним вопросы…</t>
   </si>
   <si>
-    <t xml:space="preserve">https://s00.yaplakal.com/pics/pics_original/3/5/7/14085753.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://present5.com/presentation/1/77711358_437050715.pdf-img/77711358_437050715.pdf-18.jpg</t>
+    <t xml:space="preserve">https://s02.yapfiles.ru/files/524784/komiksygifki337119.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.gifer.com/AK3k.gif</t>
   </si>
   <si>
     <t xml:space="preserve">У меня вызывает интерес изучение различных знаковых систем (языки программирования, стенография, азбука Морзе) </t>
@@ -795,7 +792,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -809,6 +806,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -892,8 +893,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,7 +940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -968,7 +969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -991,7 +992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -1094,11 +1095,11 @@
       <c r="H7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1218,14 +1219,14 @@
       <c r="G12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -1348,11 +1349,11 @@
       <c r="H17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -1663,11 +1664,9 @@
       <c r="H29" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -1675,28 +1674,28 @@
         <v>176</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -1704,22 +1703,22 @@
         <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -1727,103 +1726,103 @@
         <v>176</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1833,7 @@
     <hyperlink ref="H6" r:id="rId4" display="https://otkritkis.com/wp-content/uploads/2022/07/hr2rm.gif"/>
     <hyperlink ref="I6" r:id="rId5" display="https://otkritkis.com/wp-content/uploads/2022/07/gvbuc.gif"/>
     <hyperlink ref="H7" r:id="rId6" display="https://cdn.fishki.net/upload/post/201410/22/1318746/how_to_use_the_gym_25.gif"/>
-    <hyperlink ref="I7" r:id="rId7" display="https://sun9-18.userapi.com/c627222/v627222437/121d2/6Z6cNCWtPbo.jpg"/>
+    <hyperlink ref="I7" r:id="rId7" display="https://cdn.lifehacker.ru/wp-content/uploads/2018/07/ezgif.com-resize_1531945755.gif"/>
     <hyperlink ref="I8" r:id="rId8" display="https://thumbs.gfycat.com/HonestGraveCoral-size_restricted.gif"/>
     <hyperlink ref="H10" r:id="rId9" display="https://r4.mt.ru/u13/photoFB2F/20062271550-0/original.gif"/>
     <hyperlink ref="H12" r:id="rId10" display="https://steamuserimages-a.akamaihd.net/ugc/579001704086781317/D1CED46BD790056237B39212EAE46C17D1C4C96D/?imw=512&amp;amp;imh=273&amp;amp;ima=fit&amp;amp;impolicy=Letterbox&amp;amp;imcolor=%23000000&amp;amp;letterbox=true"/>
@@ -1844,7 +1843,7 @@
     <hyperlink ref="I15" r:id="rId14" display="https://thumbs.gfycat.com/CreativeRingedChrysalis-size_restricted.gif"/>
     <hyperlink ref="H16" r:id="rId15" display="https://c.tenor.com/bucDVKCoIKAAAAAC/swordfish-hack.gif"/>
     <hyperlink ref="H17" r:id="rId16" display="https://art.pixilart.com/5f35b2c7e85fc7f.gif"/>
-    <hyperlink ref="I17" r:id="rId17" display="https://i.imgur.com/zabyPE5h.jpg"/>
+    <hyperlink ref="I17" r:id="rId17" display="https://media.tenor.com/54mjjpuowCgAAAAC/ninjala-jane.gif"/>
     <hyperlink ref="H19" r:id="rId18" display="https://thumbs.gfycat.com/ThisTallCassowary-size_restricted.gif"/>
     <hyperlink ref="I19" r:id="rId19" display="https://www2.pictures.zimbio.com/mp/P99UvU8vGknl.gif"/>
     <hyperlink ref="H20" r:id="rId20" display="https://www.serieously.com/app/uploads/2020/07/bon-desperate-housewives.gif"/>
@@ -1857,14 +1856,13 @@
     <hyperlink ref="I26" r:id="rId27" display="https://otkritkis.com/wp-content/uploads/2022/07/hvykj.gif"/>
     <hyperlink ref="I27" r:id="rId28" display="https://korolevriamo.ru/files/image/05/93/32/gallery!0cqp.gif"/>
     <hyperlink ref="H29" r:id="rId29" display="https://thumbs.gfycat.com/LoathsomeUnderstatedDwarfrabbit-size_restricted.gif"/>
-    <hyperlink ref="I29" r:id="rId30" display=" https://thumbs.gfycat.com/ImmediateEssentialAxolotl-size_restricted.gif"/>
-    <hyperlink ref="H30" r:id="rId31" display="https://s00.yaplakal.com/pics/pics_original/3/5/7/14085753.jpg"/>
-    <hyperlink ref="I30" r:id="rId32" display="https://present5.com/presentation/1/77711358_437050715.pdf-img/77711358_437050715.pdf-18.jpg"/>
-    <hyperlink ref="H32" r:id="rId33" display="https://media1.tenor.com/images/4aef3450ad67f7f60ea9596bb8e8a21f/tenor.gif?itemid=16117416"/>
-    <hyperlink ref="I32" r:id="rId34" display="https://cs.pikabu.ru/post_img/2013/04/06/6/1365238069_852814216.gif"/>
-    <hyperlink ref="H33" r:id="rId35" display="https://i.pinimg.com/originals/1f/76/67/1f7667af40f670b76096c0c3fc843168.gif"/>
-    <hyperlink ref="H35" r:id="rId36" display="https://i.pinimg.com/originals/1f/76/67/1f7667af40f670b76096c0c3fc843168.gif"/>
-    <hyperlink ref="I35" r:id="rId37" display="https://cdn3.whatculture.com/images/2014/06/tumblr_inline_mkykvo8etx1qz4rgp-600x338.gif"/>
+    <hyperlink ref="H30" r:id="rId30" display="https://s02.yapfiles.ru/files/524784/komiksygifki337119.gif"/>
+    <hyperlink ref="I30" r:id="rId31" display="https://i.gifer.com/AK3k.gif"/>
+    <hyperlink ref="H32" r:id="rId32" display="https://media1.tenor.com/images/4aef3450ad67f7f60ea9596bb8e8a21f/tenor.gif?itemid=16117416"/>
+    <hyperlink ref="I32" r:id="rId33" display="https://cs.pikabu.ru/post_img/2013/04/06/6/1365238069_852814216.gif"/>
+    <hyperlink ref="H33" r:id="rId34" display="https://i.pinimg.com/originals/1f/76/67/1f7667af40f670b76096c0c3fc843168.gif"/>
+    <hyperlink ref="H35" r:id="rId35" display="https://i.pinimg.com/originals/1f/76/67/1f7667af40f670b76096c0c3fc843168.gif"/>
+    <hyperlink ref="I35" r:id="rId36" display="https://cdn3.whatculture.com/images/2014/06/tumblr_inline_mkykvo8etx1qz4rgp-600x338.gif"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
